--- a/expriment/main/AFFcon.xlsx
+++ b/expriment/main/AFFcon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryougi mana\Desktop\CF_DDM\expriment\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E13E00-D4F4-4CEA-8A4B-ABFFAF075C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F726F163-41C3-47C6-9F46-91D041D4C041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,6 +105,7 @@
   </si>
   <si>
     <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -431,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,7 +482,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -501,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -521,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -541,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -561,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -581,7 +582,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -601,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -621,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -641,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -661,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -681,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -701,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -721,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -741,7 +742,7 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -761,7 +762,7 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -781,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -801,7 +802,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -821,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -841,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -861,7 +862,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -881,7 +882,7 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -901,7 +902,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -921,7 +922,7 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -941,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -961,7 +962,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -981,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1001,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1021,7 +1022,7 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1041,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1061,7 +1062,7 @@
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1081,7 +1082,7 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1101,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1121,7 +1122,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1141,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1181,7 +1182,7 @@
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1201,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1221,7 +1222,7 @@
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1241,7 +1242,7 @@
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1261,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1281,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1301,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1321,7 +1322,7 @@
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1341,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1361,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1381,7 +1382,7 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1401,7 +1402,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1421,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1441,7 +1442,7 @@
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1461,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1481,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1501,7 +1502,7 @@
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1521,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1541,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1561,7 +1562,7 @@
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1581,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1601,7 +1602,7 @@
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1621,7 +1622,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1641,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1661,7 +1662,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1681,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -1701,7 +1702,7 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1721,7 +1722,7 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -1741,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1761,7 +1762,7 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1781,7 +1782,7 @@
         <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1801,7 +1802,7 @@
         <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -1821,7 +1822,7 @@
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -1841,7 +1842,7 @@
         <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -1861,7 +1862,7 @@
         <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -1881,7 +1882,7 @@
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1901,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -1921,7 +1922,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -1941,7 +1942,7 @@
         <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -1961,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -1981,7 +1982,7 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -2001,7 +2002,7 @@
         <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2021,7 +2022,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -2041,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2061,7 +2062,7 @@
         <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
